--- a/excel/dataFilled.xlsx
+++ b/excel/dataFilled.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DC1-TG现状配置表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>省份</t>
   </si>
@@ -288,7 +288,100 @@
     <t>分类</t>
   </si>
   <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年扩容需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>espc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年扩容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>espc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年扩容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>espc</t>
+    </r>
+  </si>
+  <si>
+    <t>18年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1TG1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>空闲（折合espc）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -313,78 +406,7 @@
       </rPr>
       <t>espc</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年扩容需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>espc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年扩容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>espc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年扩容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>espc</t>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -409,21 +431,56 @@
       </rPr>
       <t>espc</t>
     </r>
-  </si>
-  <si>
-    <t>18年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>16年</t>
+    <r>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年扩容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>espc</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>15年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC1TG1</t>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年扩容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>espc</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1104,15 +1161,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,8 +1190,11 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1480,10 +1540,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1491,10 +1551,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>71</v>
@@ -2383,16 +2443,16 @@
         <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>76</v>
@@ -4038,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4049,30 +4109,36 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -4094,8 +4160,14 @@
       <c r="G2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -4117,8 +4189,14 @@
       <c r="G3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -4140,8 +4218,14 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -4163,8 +4247,14 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -4186,8 +4276,14 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -4209,8 +4305,14 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -4232,8 +4334,14 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -4247,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -4255,8 +4363,14 @@
       <c r="G9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -4278,8 +4392,14 @@
       <c r="G10" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -4301,8 +4421,14 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -4324,8 +4450,14 @@
       <c r="G12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -4347,8 +4479,14 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -4370,8 +4508,14 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -4393,8 +4537,14 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4566,14 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>65</v>
       </c>
@@ -4439,8 +4595,14 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
@@ -4462,8 +4624,14 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -4485,8 +4653,14 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -4508,8 +4682,14 @@
       <c r="G20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
@@ -4531,8 +4711,14 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -4552,11 +4738,18 @@
         <v>20</v>
       </c>
       <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8">
+        <v>20</v>
+      </c>
+      <c r="I22" s="8">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/excel/dataFilled.xlsx
+++ b/excel/dataFilled.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>省份</t>
   </si>
@@ -358,10 +358,6 @@
       </rPr>
       <t>espc</t>
     </r>
-  </si>
-  <si>
-    <t>18年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>16年</t>
@@ -481,6 +477,18 @@
       </rPr>
       <t>espc</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北京HSS1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1172,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1185,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>454</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1199,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>798</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1210,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1221,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1232,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>1210</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1243,10 +1251,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1254,10 +1262,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1265,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>1235</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1276,10 +1284,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1287,10 +1295,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1298,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1309,10 +1317,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>1235</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1320,10 +1328,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>789</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1331,10 +1339,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1342,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>485</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1353,10 +1361,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>659</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1364,10 +1372,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1375,10 +1383,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>779</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1386,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1397,10 +1405,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1408,10 +1416,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>658</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1419,10 +1427,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1430,10 +1438,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="C24" s="4">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1441,10 +1449,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1452,10 +1460,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1463,10 +1471,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>789</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1474,10 +1482,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1485,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1496,10 +1504,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1507,10 +1515,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>789</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1518,10 +1526,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>926</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>856</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1529,10 +1537,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
+        <v>963</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1540,10 +1548,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>2</v>
+        <v>586</v>
       </c>
       <c r="C34" s="4">
-        <v>2</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1551,10 +1559,12 @@
         <v>36</v>
       </c>
       <c r="B35" s="4">
-        <v>31</v>
+        <f>SUM(B2:B34)</f>
+        <v>18195</v>
       </c>
       <c r="C35" s="4">
-        <v>31</v>
+        <f>SUM(C2:C34)</f>
+        <v>20346</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1579,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D4" sqref="D4:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1647,37 +1657,37 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>561</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>625</v>
       </c>
       <c r="J4" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K4" s="8">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1685,34 +1695,34 @@
         <v>51</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J5" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K5" s="8">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1720,34 +1730,34 @@
         <v>52</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>879</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>878</v>
       </c>
       <c r="F6" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="H6" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="J6" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="K6" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1755,34 +1765,34 @@
         <v>53</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K7" s="8">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1790,34 +1800,34 @@
         <v>54</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H8" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I8" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="J8" s="8">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="K8" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1825,34 +1835,34 @@
         <v>55</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="I9" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J9" s="8">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1860,34 +1870,34 @@
         <v>56</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="H10" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J10" s="8">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="K10" s="8">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1895,34 +1905,34 @@
         <v>57</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>852</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H11" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I11" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>852</v>
       </c>
       <c r="K11" s="8">
-        <v>1</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1930,34 +1940,34 @@
         <v>58</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="K12" s="8">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1965,34 +1975,34 @@
         <v>59</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G13" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="J13" s="8">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="K13" s="8">
-        <v>1</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2000,34 +2010,34 @@
         <v>60</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H14" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J14" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2035,34 +2045,34 @@
         <v>61</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F15" s="8">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="G15" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I15" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J15" s="8">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="K15" s="8">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2070,34 +2080,34 @@
         <v>62</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H16" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J16" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K16" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2105,34 +2115,34 @@
         <v>63</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E17" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="G17" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H17" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I17" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="J17" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K17" s="8">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2140,34 +2150,34 @@
         <v>64</v>
       </c>
       <c r="B18" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="E18" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H18" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="J18" s="8">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="K18" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2175,34 +2185,34 @@
         <v>65</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E19" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="G19" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" s="8">
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="K19" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2210,34 +2220,34 @@
         <v>66</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E20" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="G20" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H20" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J20" s="8">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="K20" s="8">
-        <v>1</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2245,34 +2255,34 @@
         <v>67</v>
       </c>
       <c r="B21" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E21" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="J21" s="8">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="K21" s="8">
-        <v>1</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2280,34 +2290,34 @@
         <v>68</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="E22" s="8">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F22" s="8">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="G22" s="8">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="H22" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="I22" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="J22" s="8">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="K22" s="8">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2315,34 +2325,34 @@
         <v>69</v>
       </c>
       <c r="B23" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E23" s="8">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G23" s="8">
-        <v>1</v>
+        <v>771</v>
       </c>
       <c r="H23" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="I23" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="J23" s="8">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="K23" s="8">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2350,34 +2360,44 @@
         <v>36</v>
       </c>
       <c r="B24" s="8">
-        <v>20</v>
+        <f t="shared" ref="B24:K24" si="0">SUM(B4:B23)</f>
+        <v>1494</v>
       </c>
       <c r="C24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2565</v>
       </c>
       <c r="D24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>3252</v>
       </c>
       <c r="E24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>3606</v>
       </c>
       <c r="F24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4476</v>
       </c>
       <c r="G24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2957</v>
       </c>
       <c r="H24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2671</v>
       </c>
       <c r="I24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>3145</v>
       </c>
       <c r="J24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4567</v>
       </c>
       <c r="K24" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4491</v>
       </c>
     </row>
   </sheetData>
@@ -2389,6 +2409,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2397,7 +2418,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2407,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>71</v>
@@ -2443,16 +2464,16 @@
         <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>76</v>
@@ -2464,7 +2485,7 @@
         <v>78</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>77</v>
@@ -2486,1600 +2507,1604 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>456</v>
+      </c>
+      <c r="C3" s="4">
+        <v>454</v>
       </c>
       <c r="D3" s="8">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8">
-        <v>17</v>
+        <v>564</v>
+      </c>
+      <c r="E3" s="4">
+        <v>456</v>
+      </c>
+      <c r="F3" s="4">
+        <v>454</v>
       </c>
       <c r="G3" s="8">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8">
-        <v>17</v>
+        <v>564</v>
+      </c>
+      <c r="H3" s="4">
+        <v>456</v>
+      </c>
+      <c r="I3" s="4">
+        <v>454</v>
       </c>
       <c r="J3" s="8">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8">
-        <v>16</v>
+        <v>564</v>
+      </c>
+      <c r="K3" s="4">
+        <v>454</v>
       </c>
       <c r="L3" s="8">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8">
-        <v>18</v>
-      </c>
-      <c r="N3" s="8">
-        <v>16</v>
-      </c>
-      <c r="O3" s="8">
-        <v>17</v>
-      </c>
-      <c r="P3" s="8">
-        <v>18</v>
+        <v>564</v>
+      </c>
+      <c r="M3" s="4">
+        <v>456</v>
+      </c>
+      <c r="N3" s="4">
+        <v>454</v>
+      </c>
+      <c r="O3" s="4">
+        <v>456</v>
+      </c>
+      <c r="P3" s="4">
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>798</v>
+      </c>
+      <c r="C4" s="4">
+        <v>124</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
+        <v>745</v>
+      </c>
+      <c r="E4" s="4">
+        <v>798</v>
+      </c>
+      <c r="F4" s="4">
+        <v>124</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
+        <v>745</v>
+      </c>
+      <c r="H4" s="4">
+        <v>798</v>
+      </c>
+      <c r="I4" s="4">
+        <v>124</v>
       </c>
       <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
+        <v>745</v>
+      </c>
+      <c r="K4" s="4">
+        <v>124</v>
       </c>
       <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
+        <v>745</v>
+      </c>
+      <c r="M4" s="4">
+        <v>798</v>
+      </c>
+      <c r="N4" s="4">
+        <v>124</v>
+      </c>
+      <c r="O4" s="4">
+        <v>798</v>
+      </c>
+      <c r="P4" s="4">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
+      <c r="B5" s="4">
+        <v>755</v>
+      </c>
+      <c r="C5" s="4">
+        <v>652</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
+        <v>1464</v>
+      </c>
+      <c r="E5" s="4">
+        <v>755</v>
+      </c>
+      <c r="F5" s="4">
+        <v>652</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
+        <v>1464</v>
+      </c>
+      <c r="H5" s="4">
+        <v>755</v>
+      </c>
+      <c r="I5" s="4">
+        <v>652</v>
       </c>
       <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
+        <v>1464</v>
+      </c>
+      <c r="K5" s="4">
+        <v>652</v>
       </c>
       <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
+        <v>1464</v>
+      </c>
+      <c r="M5" s="4">
+        <v>755</v>
+      </c>
+      <c r="N5" s="4">
+        <v>652</v>
+      </c>
+      <c r="O5" s="4">
+        <v>755</v>
+      </c>
+      <c r="P5" s="4">
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
+      <c r="B6" s="4">
+        <v>256</v>
+      </c>
+      <c r="C6" s="4">
+        <v>856</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="E6" s="4">
+        <v>256</v>
+      </c>
+      <c r="F6" s="4">
+        <v>856</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="H6" s="4">
+        <v>256</v>
+      </c>
+      <c r="I6" s="4">
+        <v>856</v>
       </c>
       <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="K6" s="4">
+        <v>856</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="M6" s="4">
+        <v>256</v>
+      </c>
+      <c r="N6" s="4">
+        <v>856</v>
+      </c>
+      <c r="O6" s="4">
+        <v>256</v>
+      </c>
+      <c r="P6" s="4">
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
+      <c r="B7" s="4">
+        <v>1210</v>
+      </c>
+      <c r="C7" s="4">
+        <v>457</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1210</v>
+      </c>
+      <c r="F7" s="4">
+        <v>457</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1210</v>
+      </c>
+      <c r="I7" s="4">
+        <v>457</v>
       </c>
       <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="K7" s="4">
+        <v>457</v>
       </c>
       <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1210</v>
+      </c>
+      <c r="N7" s="4">
+        <v>457</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1210</v>
+      </c>
+      <c r="P7" s="4">
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
+      <c r="B8" s="4">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4">
+        <v>446</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="E8" s="4">
+        <v>158</v>
+      </c>
+      <c r="F8" s="4">
+        <v>446</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="H8" s="4">
+        <v>158</v>
+      </c>
+      <c r="I8" s="4">
+        <v>446</v>
       </c>
       <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="K8" s="4">
+        <v>446</v>
       </c>
       <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="M8" s="4">
+        <v>158</v>
+      </c>
+      <c r="N8" s="4">
+        <v>446</v>
+      </c>
+      <c r="O8" s="4">
+        <v>158</v>
+      </c>
+      <c r="P8" s="4">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
+      <c r="B9" s="4">
+        <v>489</v>
+      </c>
+      <c r="C9" s="4">
+        <v>481</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="E9" s="4">
+        <v>489</v>
+      </c>
+      <c r="F9" s="4">
+        <v>481</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="H9" s="4">
+        <v>489</v>
+      </c>
+      <c r="I9" s="4">
+        <v>481</v>
       </c>
       <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="K9" s="4">
+        <v>481</v>
       </c>
       <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="M9" s="4">
+        <v>489</v>
+      </c>
+      <c r="N9" s="4">
+        <v>481</v>
+      </c>
+      <c r="O9" s="4">
+        <v>489</v>
+      </c>
+      <c r="P9" s="4">
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
+      <c r="B10" s="4">
+        <v>1235</v>
+      </c>
+      <c r="C10" s="4">
+        <v>753</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1235</v>
+      </c>
+      <c r="F10" s="4">
+        <v>753</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1235</v>
+      </c>
+      <c r="I10" s="4">
+        <v>753</v>
       </c>
       <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="K10" s="4">
+        <v>753</v>
       </c>
       <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1235</v>
+      </c>
+      <c r="N10" s="4">
+        <v>753</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1235</v>
+      </c>
+      <c r="P10" s="4">
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
+      <c r="B11" s="4">
+        <v>287</v>
+      </c>
+      <c r="C11" s="4">
+        <v>875</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
+        <v>672</v>
+      </c>
+      <c r="E11" s="4">
+        <v>287</v>
+      </c>
+      <c r="F11" s="4">
+        <v>875</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
+        <v>672</v>
+      </c>
+      <c r="H11" s="4">
+        <v>287</v>
+      </c>
+      <c r="I11" s="4">
+        <v>875</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
+        <v>672</v>
+      </c>
+      <c r="K11" s="4">
+        <v>875</v>
       </c>
       <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
-        <v>1</v>
+        <v>672</v>
+      </c>
+      <c r="M11" s="4">
+        <v>287</v>
+      </c>
+      <c r="N11" s="4">
+        <v>875</v>
+      </c>
+      <c r="O11" s="4">
+        <v>287</v>
+      </c>
+      <c r="P11" s="4">
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
+      <c r="B12" s="4">
+        <v>678</v>
+      </c>
+      <c r="C12" s="4">
+        <v>123</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="E12" s="4">
+        <v>678</v>
+      </c>
+      <c r="F12" s="4">
+        <v>123</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="H12" s="4">
+        <v>678</v>
+      </c>
+      <c r="I12" s="4">
+        <v>123</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="K12" s="4">
+        <v>123</v>
       </c>
       <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
+        <v>673</v>
+      </c>
+      <c r="M12" s="4">
+        <v>678</v>
+      </c>
+      <c r="N12" s="4">
+        <v>123</v>
+      </c>
+      <c r="O12" s="4">
+        <v>678</v>
+      </c>
+      <c r="P12" s="4">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
+      <c r="B13" s="4">
+        <v>125</v>
+      </c>
+      <c r="C13" s="4">
+        <v>754</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
+        <v>1213</v>
+      </c>
+      <c r="E13" s="4">
+        <v>125</v>
+      </c>
+      <c r="F13" s="4">
+        <v>754</v>
       </c>
       <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
+        <v>1213</v>
+      </c>
+      <c r="H13" s="4">
+        <v>125</v>
+      </c>
+      <c r="I13" s="4">
+        <v>754</v>
       </c>
       <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
+        <v>1213</v>
+      </c>
+      <c r="K13" s="4">
+        <v>754</v>
       </c>
       <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
+        <v>1213</v>
+      </c>
+      <c r="M13" s="4">
+        <v>125</v>
+      </c>
+      <c r="N13" s="4">
+        <v>754</v>
+      </c>
+      <c r="O13" s="4">
+        <v>125</v>
+      </c>
+      <c r="P13" s="4">
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
+      <c r="B14" s="4">
+        <v>1235</v>
+      </c>
+      <c r="C14" s="4">
+        <v>694</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1235</v>
+      </c>
+      <c r="F14" s="4">
+        <v>694</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1235</v>
+      </c>
+      <c r="I14" s="4">
+        <v>694</v>
       </c>
       <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="K14" s="4">
+        <v>694</v>
       </c>
       <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1235</v>
+      </c>
+      <c r="N14" s="4">
+        <v>694</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1235</v>
+      </c>
+      <c r="P14" s="4">
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
+      <c r="B15" s="4">
+        <v>789</v>
+      </c>
+      <c r="C15" s="4">
+        <v>897</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="E15" s="4">
+        <v>789</v>
+      </c>
+      <c r="F15" s="4">
+        <v>897</v>
       </c>
       <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="H15" s="4">
+        <v>789</v>
+      </c>
+      <c r="I15" s="4">
+        <v>897</v>
       </c>
       <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="K15" s="4">
+        <v>897</v>
       </c>
       <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="M15" s="4">
+        <v>789</v>
+      </c>
+      <c r="N15" s="4">
+        <v>897</v>
+      </c>
+      <c r="O15" s="4">
+        <v>789</v>
+      </c>
+      <c r="P15" s="4">
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
+      <c r="B16" s="4">
+        <v>256</v>
+      </c>
+      <c r="C16" s="4">
+        <v>654</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="E16" s="4">
+        <v>256</v>
+      </c>
+      <c r="F16" s="4">
+        <v>654</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="H16" s="4">
+        <v>256</v>
+      </c>
+      <c r="I16" s="4">
+        <v>654</v>
       </c>
       <c r="J16" s="8">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="K16" s="4">
+        <v>654</v>
       </c>
       <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="8">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="M16" s="4">
+        <v>256</v>
+      </c>
+      <c r="N16" s="4">
+        <v>654</v>
+      </c>
+      <c r="O16" s="4">
+        <v>256</v>
+      </c>
+      <c r="P16" s="4">
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
+      <c r="B17" s="4">
+        <v>485</v>
+      </c>
+      <c r="C17" s="4">
+        <v>218</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="E17" s="4">
+        <v>485</v>
+      </c>
+      <c r="F17" s="4">
+        <v>218</v>
       </c>
       <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="H17" s="4">
+        <v>485</v>
+      </c>
+      <c r="I17" s="4">
+        <v>218</v>
       </c>
       <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="K17" s="4">
+        <v>218</v>
       </c>
       <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <v>1</v>
-      </c>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="M17" s="4">
+        <v>485</v>
+      </c>
+      <c r="N17" s="4">
+        <v>218</v>
+      </c>
+      <c r="O17" s="4">
+        <v>485</v>
+      </c>
+      <c r="P17" s="4">
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
+      <c r="B18" s="4">
+        <v>659</v>
+      </c>
+      <c r="C18" s="4">
+        <v>354</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="E18" s="4">
+        <v>659</v>
+      </c>
+      <c r="F18" s="4">
+        <v>354</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="H18" s="4">
+        <v>659</v>
+      </c>
+      <c r="I18" s="4">
+        <v>354</v>
       </c>
       <c r="J18" s="8">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="K18" s="4">
+        <v>354</v>
       </c>
       <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
-      <c r="P18" s="8">
-        <v>1</v>
+        <v>546</v>
+      </c>
+      <c r="M18" s="4">
+        <v>659</v>
+      </c>
+      <c r="N18" s="4">
+        <v>354</v>
+      </c>
+      <c r="O18" s="4">
+        <v>659</v>
+      </c>
+      <c r="P18" s="4">
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
+      <c r="B19" s="4">
+        <v>231</v>
+      </c>
+      <c r="C19" s="4">
+        <v>294</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
+        <v>678</v>
+      </c>
+      <c r="E19" s="4">
+        <v>231</v>
+      </c>
+      <c r="F19" s="4">
+        <v>294</v>
       </c>
       <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1</v>
+        <v>678</v>
+      </c>
+      <c r="H19" s="4">
+        <v>231</v>
+      </c>
+      <c r="I19" s="4">
+        <v>294</v>
       </c>
       <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1</v>
+        <v>678</v>
+      </c>
+      <c r="K19" s="4">
+        <v>294</v>
       </c>
       <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
-      </c>
-      <c r="P19" s="8">
-        <v>1</v>
+        <v>678</v>
+      </c>
+      <c r="M19" s="4">
+        <v>231</v>
+      </c>
+      <c r="N19" s="4">
+        <v>294</v>
+      </c>
+      <c r="O19" s="4">
+        <v>231</v>
+      </c>
+      <c r="P19" s="4">
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
+      <c r="B20" s="4">
+        <v>779</v>
+      </c>
+      <c r="C20" s="4">
+        <v>186</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
+        <v>454</v>
+      </c>
+      <c r="E20" s="4">
+        <v>779</v>
+      </c>
+      <c r="F20" s="4">
+        <v>186</v>
       </c>
       <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1</v>
+        <v>454</v>
+      </c>
+      <c r="H20" s="4">
+        <v>779</v>
+      </c>
+      <c r="I20" s="4">
+        <v>186</v>
       </c>
       <c r="J20" s="8">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1</v>
+        <v>454</v>
+      </c>
+      <c r="K20" s="4">
+        <v>186</v>
       </c>
       <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8">
-        <v>1</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1</v>
-      </c>
-      <c r="P20" s="8">
-        <v>1</v>
+        <v>454</v>
+      </c>
+      <c r="M20" s="4">
+        <v>779</v>
+      </c>
+      <c r="N20" s="4">
+        <v>186</v>
+      </c>
+      <c r="O20" s="4">
+        <v>779</v>
+      </c>
+      <c r="P20" s="4">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
+      <c r="B21" s="4">
+        <v>325</v>
+      </c>
+      <c r="C21" s="4">
+        <v>165</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="E21" s="4">
+        <v>325</v>
+      </c>
+      <c r="F21" s="4">
+        <v>165</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="H21" s="4">
+        <v>325</v>
+      </c>
+      <c r="I21" s="4">
+        <v>165</v>
       </c>
       <c r="J21" s="8">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="K21" s="4">
+        <v>165</v>
       </c>
       <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
-        <v>1</v>
-      </c>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1</v>
-      </c>
-      <c r="P21" s="8">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="M21" s="4">
+        <v>325</v>
+      </c>
+      <c r="N21" s="4">
+        <v>165</v>
+      </c>
+      <c r="O21" s="4">
+        <v>325</v>
+      </c>
+      <c r="P21" s="4">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
+      <c r="B22" s="4">
+        <v>456</v>
+      </c>
+      <c r="C22" s="4">
+        <v>684</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
+        <v>1456</v>
+      </c>
+      <c r="E22" s="4">
+        <v>456</v>
+      </c>
+      <c r="F22" s="4">
+        <v>684</v>
       </c>
       <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
+        <v>1456</v>
+      </c>
+      <c r="H22" s="4">
+        <v>456</v>
+      </c>
+      <c r="I22" s="4">
+        <v>684</v>
       </c>
       <c r="J22" s="8">
-        <v>1</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1</v>
+        <v>1456</v>
+      </c>
+      <c r="K22" s="4">
+        <v>684</v>
       </c>
       <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8">
-        <v>1</v>
-      </c>
-      <c r="P22" s="8">
-        <v>1</v>
+        <v>1456</v>
+      </c>
+      <c r="M22" s="4">
+        <v>456</v>
+      </c>
+      <c r="N22" s="4">
+        <v>684</v>
+      </c>
+      <c r="O22" s="4">
+        <v>456</v>
+      </c>
+      <c r="P22" s="4">
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
+      <c r="B23" s="4">
+        <v>658</v>
+      </c>
+      <c r="C23" s="4">
+        <v>364</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="E23" s="4">
+        <v>658</v>
+      </c>
+      <c r="F23" s="4">
+        <v>364</v>
       </c>
       <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="H23" s="4">
+        <v>658</v>
+      </c>
+      <c r="I23" s="4">
+        <v>364</v>
       </c>
       <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="K23" s="4">
+        <v>364</v>
       </c>
       <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8">
-        <v>1</v>
-      </c>
-      <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
-        <v>1</v>
-      </c>
-      <c r="P23" s="8">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="M23" s="4">
+        <v>658</v>
+      </c>
+      <c r="N23" s="4">
+        <v>364</v>
+      </c>
+      <c r="O23" s="4">
+        <v>658</v>
+      </c>
+      <c r="P23" s="4">
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
+      <c r="B24" s="4">
+        <v>235</v>
+      </c>
+      <c r="C24" s="4">
+        <v>665</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="E24" s="4">
+        <v>235</v>
+      </c>
+      <c r="F24" s="4">
+        <v>665</v>
       </c>
       <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="H24" s="4">
+        <v>235</v>
+      </c>
+      <c r="I24" s="4">
+        <v>665</v>
       </c>
       <c r="J24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="K24" s="4">
+        <v>665</v>
       </c>
       <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
-        <v>1</v>
-      </c>
-      <c r="P24" s="8">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="M24" s="4">
+        <v>235</v>
+      </c>
+      <c r="N24" s="4">
+        <v>665</v>
+      </c>
+      <c r="O24" s="4">
+        <v>235</v>
+      </c>
+      <c r="P24" s="4">
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
+      <c r="B25" s="4">
+        <v>495</v>
+      </c>
+      <c r="C25" s="4">
+        <v>216</v>
       </c>
       <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
+        <v>873</v>
+      </c>
+      <c r="E25" s="4">
+        <v>495</v>
+      </c>
+      <c r="F25" s="4">
+        <v>216</v>
       </c>
       <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1</v>
+        <v>873</v>
+      </c>
+      <c r="H25" s="4">
+        <v>495</v>
+      </c>
+      <c r="I25" s="4">
+        <v>216</v>
       </c>
       <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1</v>
+        <v>873</v>
+      </c>
+      <c r="K25" s="4">
+        <v>216</v>
       </c>
       <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
-        <v>1</v>
-      </c>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
-        <v>1</v>
-      </c>
-      <c r="P25" s="8">
-        <v>1</v>
+        <v>873</v>
+      </c>
+      <c r="M25" s="4">
+        <v>495</v>
+      </c>
+      <c r="N25" s="4">
+        <v>216</v>
+      </c>
+      <c r="O25" s="4">
+        <v>495</v>
+      </c>
+      <c r="P25" s="4">
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
+      <c r="B26" s="4">
+        <v>179</v>
+      </c>
+      <c r="C26" s="4">
+        <v>397</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="E26" s="4">
+        <v>179</v>
+      </c>
+      <c r="F26" s="4">
+        <v>397</v>
       </c>
       <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="H26" s="4">
+        <v>179</v>
+      </c>
+      <c r="I26" s="4">
+        <v>397</v>
       </c>
       <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="K26" s="4">
+        <v>397</v>
       </c>
       <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="8">
-        <v>1</v>
-      </c>
-      <c r="N26" s="8">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
-        <v>1</v>
-      </c>
-      <c r="P26" s="8">
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="M26" s="4">
+        <v>179</v>
+      </c>
+      <c r="N26" s="4">
+        <v>397</v>
+      </c>
+      <c r="O26" s="4">
+        <v>179</v>
+      </c>
+      <c r="P26" s="4">
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
+      <c r="B27" s="4">
+        <v>178</v>
+      </c>
+      <c r="C27" s="4">
+        <v>235</v>
       </c>
       <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="E27" s="4">
+        <v>178</v>
+      </c>
+      <c r="F27" s="4">
+        <v>235</v>
       </c>
       <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="H27" s="4">
+        <v>178</v>
+      </c>
+      <c r="I27" s="4">
+        <v>235</v>
       </c>
       <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="K27" s="4">
+        <v>235</v>
       </c>
       <c r="L27" s="8">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8">
-        <v>1</v>
-      </c>
-      <c r="N27" s="8">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
-        <v>1</v>
-      </c>
-      <c r="P27" s="8">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="M27" s="4">
+        <v>178</v>
+      </c>
+      <c r="N27" s="4">
+        <v>235</v>
+      </c>
+      <c r="O27" s="4">
+        <v>178</v>
+      </c>
+      <c r="P27" s="4">
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
+      <c r="B28" s="4">
+        <v>789</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1202</v>
       </c>
       <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
+        <v>867</v>
+      </c>
+      <c r="E28" s="4">
+        <v>789</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1202</v>
       </c>
       <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1</v>
+        <v>867</v>
+      </c>
+      <c r="H28" s="4">
+        <v>789</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1202</v>
       </c>
       <c r="J28" s="8">
-        <v>1</v>
-      </c>
-      <c r="K28" s="8">
-        <v>1</v>
+        <v>867</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1202</v>
       </c>
       <c r="L28" s="8">
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
-        <v>1</v>
-      </c>
-      <c r="N28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28" s="8">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8">
-        <v>1</v>
+        <v>867</v>
+      </c>
+      <c r="M28" s="4">
+        <v>789</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1202</v>
+      </c>
+      <c r="O28" s="4">
+        <v>789</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1202</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
+      <c r="B29" s="4">
+        <v>456</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1110</v>
       </c>
       <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="E29" s="4">
+        <v>456</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1110</v>
       </c>
       <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="H29" s="4">
+        <v>456</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1110</v>
       </c>
       <c r="J29" s="8">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1110</v>
       </c>
       <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1</v>
-      </c>
-      <c r="N29" s="8">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8">
-        <v>1</v>
-      </c>
-      <c r="P29" s="8">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="M29" s="4">
+        <v>456</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1110</v>
+      </c>
+      <c r="O29" s="4">
+        <v>456</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1110</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
+      <c r="B30" s="4">
+        <v>156</v>
+      </c>
+      <c r="C30" s="4">
+        <v>964</v>
       </c>
       <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="E30" s="4">
+        <v>156</v>
+      </c>
+      <c r="F30" s="4">
+        <v>964</v>
       </c>
       <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="H30" s="4">
+        <v>156</v>
+      </c>
+      <c r="I30" s="4">
+        <v>964</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="K30" s="4">
+        <v>964</v>
       </c>
       <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8">
-        <v>1</v>
-      </c>
-      <c r="P30" s="8">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="M30" s="4">
+        <v>156</v>
+      </c>
+      <c r="N30" s="4">
+        <v>964</v>
+      </c>
+      <c r="O30" s="4">
+        <v>156</v>
+      </c>
+      <c r="P30" s="4">
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
+      <c r="B31" s="4">
+        <v>123</v>
+      </c>
+      <c r="C31" s="4">
+        <v>239</v>
       </c>
       <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
+        <v>799</v>
+      </c>
+      <c r="E31" s="4">
+        <v>123</v>
+      </c>
+      <c r="F31" s="4">
+        <v>239</v>
       </c>
       <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1</v>
+        <v>799</v>
+      </c>
+      <c r="H31" s="4">
+        <v>123</v>
+      </c>
+      <c r="I31" s="4">
+        <v>239</v>
       </c>
       <c r="J31" s="8">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1</v>
+        <v>799</v>
+      </c>
+      <c r="K31" s="4">
+        <v>239</v>
       </c>
       <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>1</v>
-      </c>
-      <c r="N31" s="8">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8">
-        <v>1</v>
-      </c>
-      <c r="P31" s="8">
-        <v>1</v>
+        <v>799</v>
+      </c>
+      <c r="M31" s="4">
+        <v>123</v>
+      </c>
+      <c r="N31" s="4">
+        <v>239</v>
+      </c>
+      <c r="O31" s="4">
+        <v>123</v>
+      </c>
+      <c r="P31" s="4">
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
+      <c r="B32" s="4">
+        <v>789</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1646</v>
       </c>
       <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
+        <v>788</v>
+      </c>
+      <c r="E32" s="4">
+        <v>789</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1646</v>
       </c>
       <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1</v>
+        <v>788</v>
+      </c>
+      <c r="H32" s="4">
+        <v>789</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1646</v>
       </c>
       <c r="J32" s="8">
-        <v>1</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1</v>
+        <v>788</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1646</v>
       </c>
       <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
-        <v>1</v>
-      </c>
-      <c r="N32" s="8">
-        <v>1</v>
-      </c>
-      <c r="O32" s="8">
-        <v>1</v>
-      </c>
-      <c r="P32" s="8">
-        <v>1</v>
+        <v>788</v>
+      </c>
+      <c r="M32" s="4">
+        <v>789</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1646</v>
+      </c>
+      <c r="O32" s="4">
+        <v>789</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1646</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
+      <c r="B33" s="4">
+        <v>926</v>
+      </c>
+      <c r="C33" s="4">
+        <v>856</v>
       </c>
       <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="E33" s="4">
+        <v>926</v>
+      </c>
+      <c r="F33" s="4">
+        <v>856</v>
       </c>
       <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="H33" s="4">
+        <v>926</v>
+      </c>
+      <c r="I33" s="4">
+        <v>856</v>
       </c>
       <c r="J33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="8">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="K33" s="4">
+        <v>856</v>
       </c>
       <c r="L33" s="8">
-        <v>1</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1</v>
-      </c>
-      <c r="N33" s="8">
-        <v>1</v>
-      </c>
-      <c r="O33" s="8">
-        <v>1</v>
-      </c>
-      <c r="P33" s="8">
-        <v>1</v>
+        <v>468</v>
+      </c>
+      <c r="M33" s="4">
+        <v>926</v>
+      </c>
+      <c r="N33" s="4">
+        <v>856</v>
+      </c>
+      <c r="O33" s="4">
+        <v>926</v>
+      </c>
+      <c r="P33" s="4">
+        <v>856</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8">
-        <v>31</v>
+      <c r="B34" s="4">
+        <v>16646</v>
+      </c>
+      <c r="C34" s="4">
+        <v>18015</v>
       </c>
       <c r="D34" s="8">
-        <v>31</v>
-      </c>
-      <c r="E34" s="8">
-        <v>31</v>
-      </c>
-      <c r="F34" s="8">
-        <v>31</v>
+        <f>SUM(D3:D33)</f>
+        <v>18044</v>
+      </c>
+      <c r="E34" s="4">
+        <v>16646</v>
+      </c>
+      <c r="F34" s="4">
+        <v>18015</v>
       </c>
       <c r="G34" s="8">
-        <v>31</v>
-      </c>
-      <c r="H34" s="8">
-        <v>31</v>
-      </c>
-      <c r="I34" s="8">
-        <v>31</v>
+        <f>SUM(G3:G33)</f>
+        <v>18044</v>
+      </c>
+      <c r="H34" s="4">
+        <v>16646</v>
+      </c>
+      <c r="I34" s="4">
+        <v>18015</v>
       </c>
       <c r="J34" s="8">
-        <v>31</v>
-      </c>
-      <c r="K34" s="8">
-        <v>31</v>
+        <f>SUM(J3:J33)</f>
+        <v>18044</v>
+      </c>
+      <c r="K34" s="4">
+        <v>18015</v>
       </c>
       <c r="L34" s="8">
-        <v>31</v>
-      </c>
-      <c r="M34" s="8">
-        <v>31</v>
-      </c>
-      <c r="N34" s="8">
-        <v>31</v>
-      </c>
-      <c r="O34" s="8">
-        <v>31</v>
-      </c>
-      <c r="P34" s="8">
-        <v>31</v>
+        <f>SUM(L3:L33)</f>
+        <v>18044</v>
+      </c>
+      <c r="M34" s="4">
+        <v>16646</v>
+      </c>
+      <c r="N34" s="4">
+        <v>18015</v>
+      </c>
+      <c r="O34" s="4">
+        <v>16646</v>
+      </c>
+      <c r="P34" s="4">
+        <v>18015</v>
       </c>
     </row>
   </sheetData>
@@ -4100,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4114,10 +4139,10 @@
         <v>79</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>80</v>
@@ -4129,13 +4154,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4143,28 +4168,28 @@
         <v>50</v>
       </c>
       <c r="B2" s="8">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>561</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
+        <v>625</v>
       </c>
       <c r="H2" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4172,28 +4197,28 @@
         <v>51</v>
       </c>
       <c r="B3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4201,28 +4226,28 @@
         <v>52</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>879</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>878</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4230,28 +4255,28 @@
         <v>53</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4259,28 +4284,28 @@
         <v>54</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="E6" s="8">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F6" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H6" s="8">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4288,28 +4313,28 @@
         <v>55</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4317,28 +4342,28 @@
         <v>56</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="I8" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4346,28 +4371,28 @@
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>852</v>
       </c>
       <c r="E9" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>852</v>
       </c>
       <c r="I9" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4375,28 +4400,28 @@
         <v>58</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H10" s="8">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4404,28 +4429,28 @@
         <v>59</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="I11" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4433,28 +4458,28 @@
         <v>60</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4462,28 +4487,28 @@
         <v>61</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="E13" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G13" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4491,28 +4516,28 @@
         <v>62</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H14" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4520,28 +4545,28 @@
         <v>63</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="G15" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I15" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4549,28 +4574,28 @@
         <v>64</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="E16" s="8">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="H16" s="8">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I16" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4578,28 +4603,28 @@
         <v>65</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="E17" s="8">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G17" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8">
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="I17" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4607,28 +4632,28 @@
         <v>66</v>
       </c>
       <c r="B18" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="E18" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F18" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H18" s="8">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4636,28 +4661,28 @@
         <v>67</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E19" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="G19" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="I19" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4665,28 +4690,28 @@
         <v>68</v>
       </c>
       <c r="B20" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="G20" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="H20" s="8">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I20" s="8">
-        <v>1</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4694,28 +4719,28 @@
         <v>69</v>
       </c>
       <c r="B21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E21" s="8">
-        <v>1</v>
+        <v>771</v>
       </c>
       <c r="F21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="H21" s="8">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4723,28 +4748,36 @@
         <v>36</v>
       </c>
       <c r="B22" s="8">
-        <v>20</v>
+        <f t="shared" ref="B22:I22" si="0">SUM(B2:B21)</f>
+        <v>3252</v>
       </c>
       <c r="C22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>3606</v>
       </c>
       <c r="D22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4476</v>
       </c>
       <c r="E22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2957</v>
       </c>
       <c r="F22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2671</v>
       </c>
       <c r="G22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>3145</v>
       </c>
       <c r="H22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>4567</v>
       </c>
       <c r="I22" s="8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>2671</v>
       </c>
     </row>
   </sheetData>
